--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2004,106 +2010,106 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2010,106 +2004,106 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
